--- a/code/data/serotype_share_age_cases.xlsx
+++ b/code/data/serotype_share_age_cases.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/abhisena_nus_edu_sg/Documents/Documents/codes/dengue_main/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/abhisena_nus_edu_sg/Documents/Documents/singapore_dengue_vaccination/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="926" documentId="8_{AC66D556-D073-4D76-80B9-0749CD3E29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021E2DDA-020C-4623-8C06-76468D1E0316}"/>
+  <xr:revisionPtr revIDLastSave="1079" documentId="8_{AC66D556-D073-4D76-80B9-0749CD3E29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA758BE7-7BAA-4FBC-80C9-ECDE9CC998E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="777" activeTab="2" xr2:uid="{33AD2143-A165-44FE-A68A-6CDCDF4A9EDB}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="777" firstSheet="1" activeTab="2" xr2:uid="{33AD2143-A165-44FE-A68A-6CDCDF4A9EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="sero_share" sheetId="1" r:id="rId1"/>
     <sheet name="age_case_2014_20" sheetId="2" r:id="rId2"/>
-    <sheet name="avg_age_inc_2014_20" sheetId="6" r:id="rId3"/>
-    <sheet name="age_case_2001_13" sheetId="3" r:id="rId4"/>
-    <sheet name="yearly_reported_cases" sheetId="4" r:id="rId5"/>
-    <sheet name="imported_cases" sheetId="5" r:id="rId6"/>
+    <sheet name="age_hosp_frac_2003_17" sheetId="7" r:id="rId3"/>
+    <sheet name="hosp_frac_2003_17year" sheetId="8" r:id="rId4"/>
+    <sheet name="avg_age_inc_2014_20" sheetId="6" r:id="rId5"/>
+    <sheet name="age_case_2001_13" sheetId="3" r:id="rId6"/>
+    <sheet name="yearly_reported_cases" sheetId="4" r:id="rId7"/>
+    <sheet name="imported_cases" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>year</t>
   </si>
@@ -117,6 +141,12 @@
   <si>
     <t>n_import</t>
   </si>
+  <si>
+    <t>0-14y</t>
+  </si>
+  <si>
+    <t>hosp_rate</t>
+  </si>
 </sst>
 </file>
 
@@ -187,10 +217,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,10 +1521,586 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CBCE31-0A87-4B65-9FC1-B362CFEE492A}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A16">_xlfn.SEQUENCE(15,1,2003,1)</f>
+        <v>2003</v>
+      </c>
+      <c r="B2">
+        <v>87.6</v>
+      </c>
+      <c r="C2">
+        <v>97.4</v>
+      </c>
+      <c r="D2">
+        <v>96.2</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
+        <v>77.7</v>
+      </c>
+      <c r="C3">
+        <v>89.2</v>
+      </c>
+      <c r="D3">
+        <v>84.5</v>
+      </c>
+      <c r="E3">
+        <v>89.3</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <v>83.4</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>96.1</v>
+      </c>
+      <c r="E4">
+        <v>97.3</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>86.9</v>
+      </c>
+      <c r="D5">
+        <v>77.2</v>
+      </c>
+      <c r="E5">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F5">
+        <v>81.3</v>
+      </c>
+      <c r="G5">
+        <v>60.7</v>
+      </c>
+      <c r="H5">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>55.9</v>
+      </c>
+      <c r="D6">
+        <v>56.5</v>
+      </c>
+      <c r="E6">
+        <v>59.3</v>
+      </c>
+      <c r="F6">
+        <v>67.7</v>
+      </c>
+      <c r="G6">
+        <v>69.7</v>
+      </c>
+      <c r="H6">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <v>46.7</v>
+      </c>
+      <c r="C7">
+        <v>45.9</v>
+      </c>
+      <c r="D7">
+        <v>42.7</v>
+      </c>
+      <c r="E7">
+        <v>48.1</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>56.7</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8">
+        <v>50.7</v>
+      </c>
+      <c r="C8">
+        <v>46.5</v>
+      </c>
+      <c r="D8">
+        <v>44.9</v>
+      </c>
+      <c r="E8">
+        <v>53.8</v>
+      </c>
+      <c r="F8">
+        <v>57.1</v>
+      </c>
+      <c r="G8">
+        <v>58.7</v>
+      </c>
+      <c r="H8">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>46.4</v>
+      </c>
+      <c r="C9">
+        <v>44.6</v>
+      </c>
+      <c r="D9">
+        <v>43.2</v>
+      </c>
+      <c r="E9">
+        <v>44.6</v>
+      </c>
+      <c r="F9">
+        <v>58.2</v>
+      </c>
+      <c r="G9">
+        <v>59.6</v>
+      </c>
+      <c r="H9">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <v>41.8</v>
+      </c>
+      <c r="C10">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D10">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E10">
+        <v>41.1</v>
+      </c>
+      <c r="F10">
+        <v>49.3</v>
+      </c>
+      <c r="G10">
+        <v>56.7</v>
+      </c>
+      <c r="H10">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D11">
+        <v>34.5</v>
+      </c>
+      <c r="E11">
+        <v>43.7</v>
+      </c>
+      <c r="F11">
+        <v>47.7</v>
+      </c>
+      <c r="G11">
+        <v>55.1</v>
+      </c>
+      <c r="H11">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C12">
+        <v>27.9</v>
+      </c>
+      <c r="D12">
+        <v>24.1</v>
+      </c>
+      <c r="E12">
+        <v>29.1</v>
+      </c>
+      <c r="F12">
+        <v>38.5</v>
+      </c>
+      <c r="G12">
+        <v>46.5</v>
+      </c>
+      <c r="H12">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <v>27.5</v>
+      </c>
+      <c r="C13">
+        <v>20.8</v>
+      </c>
+      <c r="D13">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E13">
+        <v>22.4</v>
+      </c>
+      <c r="F13">
+        <v>29.6</v>
+      </c>
+      <c r="G13">
+        <v>43.8</v>
+      </c>
+      <c r="H13">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>31.9</v>
+      </c>
+      <c r="C14">
+        <v>22.9</v>
+      </c>
+      <c r="D14">
+        <v>22.7</v>
+      </c>
+      <c r="E14">
+        <v>26.1</v>
+      </c>
+      <c r="F14">
+        <v>36.4</v>
+      </c>
+      <c r="G14">
+        <v>42.7</v>
+      </c>
+      <c r="H14">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>25.6</v>
+      </c>
+      <c r="C15">
+        <v>21.8</v>
+      </c>
+      <c r="D15">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E15">
+        <v>25.9</v>
+      </c>
+      <c r="F15">
+        <v>32.5</v>
+      </c>
+      <c r="G15">
+        <v>45.4</v>
+      </c>
+      <c r="H15">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>30.6</v>
+      </c>
+      <c r="C16">
+        <v>32.6</v>
+      </c>
+      <c r="D16">
+        <v>27.3</v>
+      </c>
+      <c r="E16">
+        <v>34.9</v>
+      </c>
+      <c r="F16">
+        <v>38.5</v>
+      </c>
+      <c r="G16">
+        <v>46.9</v>
+      </c>
+      <c r="H16">
+        <v>47.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF846EE-C14B-43C6-99FC-7D6495B125D2}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A16">_xlfn.SEQUENCE(15,1,2003,1)</f>
+        <v>2003</v>
+      </c>
+      <c r="B2">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>35.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0CC51D-6D57-4191-A5E6-D7D0171A891B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1578,7 +2180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A23516-FA5B-47F7-A03E-F96A2011B8A0}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -2260,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EC9429-3425-474D-8155-6616DA1656FE}">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -2731,7 +3333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFEF0C1-E424-4D14-9FCB-F93332C38D56}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/code/data/serotype_share_age_cases.xlsx
+++ b/code/data/serotype_share_age_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/abhisena_nus_edu_sg/Documents/Documents/singapore_dengue_vaccination/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1079" documentId="8_{AC66D556-D073-4D76-80B9-0749CD3E29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA758BE7-7BAA-4FBC-80C9-ECDE9CC998E5}"/>
+  <xr:revisionPtr revIDLastSave="1164" documentId="8_{AC66D556-D073-4D76-80B9-0749CD3E29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023BF665-038C-44D0-B841-40671968D793}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="777" firstSheet="1" activeTab="2" xr2:uid="{33AD2143-A165-44FE-A68A-6CDCDF4A9EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="777" activeTab="6" xr2:uid="{33AD2143-A165-44FE-A68A-6CDCDF4A9EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="sero_share" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>hosp_rate</t>
+  </si>
+  <si>
+    <t>absolute_cases</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7025CA75-A5B7-45F7-8FDC-D3F6B36D8B2D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CBCE31-0A87-4B65-9FC1-B362CFEE492A}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -2185,7 +2188,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,13 +2869,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EC9429-3425-474D-8155-6616DA1656FE}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,6 +2886,9 @@
       <c r="B1" t="s">
         <v>23</v>
       </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3131,6 +3138,9 @@
       <c r="B29">
         <v>48.8</v>
       </c>
+      <c r="C29">
+        <v>1549</v>
+      </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3140,6 +3150,9 @@
       <c r="B30">
         <v>82.97</v>
       </c>
+      <c r="C30">
+        <v>2677</v>
+      </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,6 +3162,9 @@
       <c r="B31">
         <v>113.88</v>
       </c>
+      <c r="C31">
+        <v>4542</v>
+      </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3158,6 +3174,9 @@
       <c r="B32">
         <v>322.12</v>
       </c>
+      <c r="C32">
+        <v>9297</v>
+      </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3167,6 +3186,9 @@
       <c r="B33">
         <v>170.82</v>
       </c>
+      <c r="C33">
+        <v>14032</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,6 +3198,9 @@
       <c r="B34">
         <v>68.319999999999993</v>
       </c>
+      <c r="C34">
+        <v>2844</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,6 +3210,9 @@
       <c r="B35">
         <v>177.33</v>
       </c>
+      <c r="C35">
+        <v>8287</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,6 +3222,9 @@
       <c r="B36">
         <v>139.91</v>
       </c>
+      <c r="C36">
+        <v>6631</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,6 +3234,9 @@
       <c r="B37">
         <v>78.09</v>
       </c>
+      <c r="C37">
+        <v>4187</v>
+      </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,6 +3246,9 @@
       <c r="B38">
         <v>95.98</v>
       </c>
+      <c r="C38">
+        <v>4978</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3221,6 +3258,9 @@
       <c r="B39">
         <v>99.24</v>
       </c>
+      <c r="C39">
+        <v>5099</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,6 +3270,9 @@
       <c r="B40">
         <v>82.97</v>
       </c>
+      <c r="C40">
+        <v>4369</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3239,6 +3282,9 @@
       <c r="B41">
         <v>398.59</v>
       </c>
+      <c r="C41">
+        <v>21863</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,6 +3294,9 @@
       <c r="B42">
         <v>323.75</v>
       </c>
+      <c r="C42">
+        <v>17817</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,6 +3306,9 @@
       <c r="B43">
         <v>196.65</v>
       </c>
+      <c r="C43">
+        <v>10856</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,6 +3318,9 @@
       <c r="B44">
         <v>226.13</v>
       </c>
+      <c r="C44">
+        <v>12848</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3275,6 +3330,9 @@
       <c r="B45">
         <v>50.43</v>
       </c>
+      <c r="C45">
+        <v>2518</v>
+      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,6 +3342,9 @@
       <c r="B46">
         <v>60.19</v>
       </c>
+      <c r="C46">
+        <v>3068</v>
+      </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3293,6 +3354,9 @@
       <c r="B47">
         <v>378.73</v>
       </c>
+      <c r="C47">
+        <v>15611</v>
+      </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3302,6 +3366,9 @@
       <c r="B48">
         <v>621.47</v>
       </c>
+      <c r="C48">
+        <v>35169</v>
+      </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3311,9 +3378,18 @@
       <c r="B49">
         <v>100.87</v>
       </c>
+      <c r="C49">
+        <v>5259</v>
+      </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2022</v>
+      </c>
+      <c r="C50">
+        <v>32225</v>
+      </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,7 +3414,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
